--- a/trend_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
+++ b/trend_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.331260291770029</v>
+        <v>0.668739708229971</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8711728376222651</v>
+        <v>0.128827162377735</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.282275407634459</v>
+        <v>0.717724592365541</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.938718014796438</v>
+        <v>0.061281985203562</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>5.91939763423423e-06</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.459</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.009733206651374501</v>
+        <v>0.346614795918367</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0648719771048326</v>
+        <v>0.169924608067095</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0094073011277579</v>
+        <v>0.565563067874669</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.1205243249182</v>
+        <v>10.503478664193</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.070054620361962</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0352112676056338</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6619718309859151</v>
+      </c>
+      <c r="I31" t="n">
         <v>5</v>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.231216363225238</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>109</v>
+        <v>1.41</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.13820025257882</v>
+        <v>-0.0266727521679598</v>
       </c>
       <c r="L31" t="n">
-        <v>-6.76141989465956</v>
+        <v>-0.0596193223870939</v>
       </c>
       <c r="M31" t="n">
-        <v>0.993795186054077</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.96165160787048</v>
+        <v>-1.89168455091914</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.07914761703376499</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.93</v>
+        <v>10.11</v>
       </c>
       <c r="K32" t="n">
-        <v>0.282166446729766</v>
+        <v>-0.0247595639881272</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.6379018603315399</v>
+        <v>-0.0491950763194929</v>
       </c>
       <c r="M32" t="n">
-        <v>0.770181393325855</v>
+        <v>0.0011563672103518</v>
       </c>
       <c r="N32" t="n">
-        <v>4.75828746593197</v>
+        <v>-0.244901720950813</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.015911563693245</v>
+        <v>0.0646751052420371</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4615</v>
+        <v>0.044</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0359640921409214</v>
+        <v>0.0003328776486671</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0468270810877038</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0189105220314311</v>
+        <v>0.0006750313506893</v>
       </c>
       <c r="N33" t="n">
-        <v>-7.79286936964711</v>
+        <v>0.756540110607096</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0076611205275499</v>
+        <v>0.0003719148002083</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>111.835</v>
+        <v>656</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.14803390221402</v>
+        <v>24.5937215650591</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.87522297130625</v>
+        <v>11.946323953461</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.2518528891951</v>
+        <v>39.7504344048346</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.92071704047393</v>
+        <v>3.74904292150292</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3523,7 +3539,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.185546684761349</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.470238095238095</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>6.115</v>
+        <v>0.0116489549831165</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0892908210332104</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.332696804771223</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0505734370059817</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.46019331207212</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1166 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.933537252439829</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-9.090343454454949e-05</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0002496127962502</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.29862049349356</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.80849435104616</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0645161290322581</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.87741935483871</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0036290865384615</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0115489340108389</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0019771175807526</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.703311344663091</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.995386012194428</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.705</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0158592403895899</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0049960945203022</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0245032293001123</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.205830504731861</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.884741118307742</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.902298850574713</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5505</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0035738747553816</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0089782359374033</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0020004649031501</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.649205223502561</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.91138107682953</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0049931647300068</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0124829118250171</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0006806025441035</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.600139991587361</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.359563014786288</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.540229885057471</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.000499777842948</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0009507039753742</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.246812219992297</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.991792639576366</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.907514450867052</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0640351225538862</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.110025102692834</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0228701792641966</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.45345297141326</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.009733206651374501</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0648719771048326</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0094073011277579</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-2.1205243249182</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>109</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-2.13820025257882</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-6.76141989465956</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.993795186054077</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.96165160787048</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.282166446729766</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.6379018603315399</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.770181393325855</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.75828746593197</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.015911563693245</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0359640921409214</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0468270810877038</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0189105220314311</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-7.79286936964711</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0076611205275499</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>111.835</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-2.14803390221402</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.87522297130625</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.2518528891951</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.92071704047393</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6.115</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0892908210332104</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.332696804771223</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0505734370059817</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.46019331207212</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
+++ b/trend_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.343506672116683</v>
+        <v>0.947050515588153</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="H2" t="n">
-        <v>0.87037037037037</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.290139444949954</v>
+        <v>-1.02851991758242</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.583482845274097</v>
+        <v>-4.1621782192595</v>
       </c>
       <c r="M2" t="n">
-        <v>1.85841173763234</v>
+        <v>-0.0186808694381178</v>
       </c>
       <c r="N2" t="n">
-        <v>3.31587937085662</v>
+        <v>-15.8233833474218</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.435062631164936</v>
+        <v>0.063585943849054</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.03125</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.925</v>
+        <v>0.65</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0070511583011582</v>
+        <v>-0.163402351325145</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.232330536117704</v>
+        <v>-0.354826064221895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.219950216928113</v>
+        <v>0.0046258045362968</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.762287383908998</v>
+        <v>-25.1388232807916</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.668739708229971</v>
+        <v>0.845744209330638</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.847457627118644</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.11</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0232643312101912</v>
+        <v>0.051684310912018</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0481273895990013</v>
+        <v>-0.0423741038593089</v>
       </c>
       <c r="M4" t="n">
-        <v>0.137616884604126</v>
+        <v>0.151059579792821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.230112079230378</v>
+        <v>0.511219692502651</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.330980417107785</v>
+        <v>0.84637039488737</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.677966101694915</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002508585164835</v>
+        <v>-0.0016305803571428</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0017606318401526</v>
+        <v>-0.0049237545600187</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0019932317658013</v>
+        <v>0.0007993108724422</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5701329920079919</v>
+        <v>-4.18097527472527</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.204833176573075</v>
+        <v>0.557216564365321</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.76271186440678</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>940</v>
+        <v>860</v>
       </c>
       <c r="K6" t="n">
-        <v>55.905612244898</v>
+        <v>-8.987696514012301</v>
       </c>
       <c r="L6" t="n">
-        <v>-60.9898218161691</v>
+        <v>-115.874335608275</v>
       </c>
       <c r="M6" t="n">
-        <v>167.35658735436</v>
+        <v>98.63896526155639</v>
       </c>
       <c r="N6" t="n">
-        <v>5.94740555796787</v>
+        <v>-1.04508099000143</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.813070732446436</v>
+        <v>0.250589496268836</v>
       </c>
       <c r="G7" t="n">
-        <v>0.418181818181818</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6</v>
+        <v>0.6181818181818181</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0121936838474555</v>
+        <v>0.0133005936409573</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0008200441478186</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.0006974102567589</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.918593110109732</v>
+        <v>0.438010484465696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H8" t="n">
-        <v>0.203389830508475</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0007158411982407001</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0001355394940394</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.306715686477583</v>
+        <v>0.0037897960157913</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.505</v>
+        <v>0.539</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0185955909955103</v>
+        <v>0.0698214869012566</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0222167632043282</v>
+        <v>0.0425307454421678</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0562213834184849</v>
+        <v>0.109883821482094</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6822952466357</v>
+        <v>12.9538936737025</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.128827162377735</v>
+        <v>0.138707779839384</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.677966101694915</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0179926108374396</v>
+        <v>-0.0223622448979587</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0529403667963259</v>
+        <v>-0.0581895575714755</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0124234693877553</v>
+        <v>0.0125029198986464</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.233064907220721</v>
+        <v>-0.290418764908555</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.213639453085988</v>
+        <v>0.0005819234788650999</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.537</v>
+        <v>0.546</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0270915260279319</v>
+        <v>0.0755792299805458</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0230967142761002</v>
+        <v>0.0391339285714286</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0610042579943015</v>
+        <v>0.11413633869083</v>
       </c>
       <c r="N11" t="n">
-        <v>5.04497691395381</v>
+        <v>13.8423498132868</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.0014675588703323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.203389830508475</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.406779661016949</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.06599299384825701</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.982795918440809</v>
+        <v>0.0393800539083558</v>
       </c>
       <c r="M12" t="n">
-        <v>0.501694889960857</v>
+        <v>0.10169351224609</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.76388162920671</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.256901146903482</v>
+        <v>0.575229174156498</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.779661016949153</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0257526907428015</v>
+        <v>-0.0006415398126463</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0415713155974016</v>
+        <v>-0.0054422450756148</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0570929352009398</v>
+        <v>0.0041677363424783</v>
       </c>
       <c r="N13" t="n">
-        <v>3.67895582040021</v>
+        <v>-0.76373787219806</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.146142956243108</v>
+        <v>0.386126230518573</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.830508474576271</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08500000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0028381649731022</v>
+        <v>0.0459242482349127</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0021741071428571</v>
+        <v>-0.199085685255822</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0077058220162344</v>
+        <v>0.454227804817402</v>
       </c>
       <c r="N14" t="n">
-        <v>3.33901761541436</v>
+        <v>1.91351034312136</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.903616016399306</v>
+        <v>0.488592333073188</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.018018018018018</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966101694915254</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.238530612244898</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.01326073161635</v>
+        <v>-0.18408728828563</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0412946673322224</v>
+        <v>0.292661162506375</v>
       </c>
       <c r="N15" t="n">
-        <v>-9.93877551020408</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0253374792945327</v>
+        <v>0.011968984924329</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H16" t="n">
-        <v>0.839285714285714</v>
+        <v>0.842696629213483</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="K16" t="n">
-        <v>0.252076276272271</v>
+        <v>-0.0717737907070099</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008867074563943001</v>
+        <v>-0.13839669992865</v>
       </c>
       <c r="M16" t="n">
-        <v>0.527058217013648</v>
+        <v>-0.0255481799223159</v>
       </c>
       <c r="N16" t="n">
-        <v>4.58320502313221</v>
+        <v>-5.74190325656079</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.033741877450337</v>
+        <v>0.962515829524071</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0106382978723404</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8297872340425529</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.35</v>
+        <v>9.99</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0574213943950786</v>
+        <v>0.0265878070973613</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.103671676279724</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0053819665039706</v>
+        <v>0.0533733772397705</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.25343662185767</v>
+        <v>0.266144215188801</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.717724592365541</v>
+        <v>0.633450087666775</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.823529411764706</v>
+        <v>0.487394957983193</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09</v>
+        <v>0.042</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0049693877551019</v>
+        <v>-0.0001248291182501</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0200686813186818</v>
+        <v>-0.0010028691287787</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0359852216748768</v>
+        <v>0.00042459930818</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0492506219534384</v>
+        <v>-0.297212186309931</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.179230651119831</v>
+        <v>0.0996477405696104</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.512605042016807</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.044</v>
+        <v>740</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000334478021978</v>
+        <v>17.9239367502726</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002803222861611</v>
+        <v>-4.68230750720756</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001003434065934</v>
+        <v>49.9069603275594</v>
       </c>
       <c r="N19" t="n">
-        <v>0.760177322677321</v>
+        <v>2.42215361490171</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0074223242522377</v>
+        <v>0.000166934622933</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.495652173913044</v>
       </c>
       <c r="H20" t="n">
-        <v>0.697478991596639</v>
+        <v>0.5043478260869561</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>740</v>
+        <v>0.010288029462523</v>
       </c>
       <c r="K20" t="n">
-        <v>37.1270604395604</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>11.0994886790828</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>69.5032832114652</v>
+        <v>0.0003901905880775</v>
       </c>
       <c r="N20" t="n">
-        <v>5.01717032967033</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,29 +2294,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0031222748453002</v>
+        <v>0.595399418420841</v>
       </c>
       <c r="G21" t="n">
-        <v>0.547826086956522</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H21" t="n">
-        <v>0.452173913043478</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0001429549902152</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.748389206753667</v>
+        <v>0.0217381918647241</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0504201680672269</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H22" t="n">
-        <v>0.176470588235294</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.007</v>
+        <v>0.554</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.011849713740458</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002845549753636</v>
+        <v>0.0018924807380911</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0235592391922075</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.13893749827762</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.08519446603593921</v>
+        <v>0.124340350370573</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0840336134453782</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.882352941176471</v>
+        <v>0.504201680672269</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.475</v>
+        <v>7.72</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0054051008202323</v>
+        <v>-0.0072807308970098</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0182985538406853</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0158612763935901</v>
+        <v>0.0024965823650034</v>
       </c>
       <c r="N23" t="n">
-        <v>1.13791596215419</v>
+        <v>-0.0943099857125623</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.061281985203562</v>
+        <v>0.0159642938094079</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H24" t="n">
-        <v>0.504201680672269</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.73</v>
+        <v>0.5854</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0099704276615105</v>
+        <v>0.0129733606557377</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0200638651184956</v>
+        <v>0.0040163119663113</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0261779783196214</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.1289835402524</v>
+        <v>2.21615316975362</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0908324803700517</v>
+        <v>0.0583634803190031</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.890756302521008</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0071323227132579</v>
+        <v>0.0137312030075188</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0003981342238396</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0175181077610051</v>
+        <v>0.0266691125852118</v>
       </c>
       <c r="N25" t="n">
-        <v>1.34572126665245</v>
+        <v>1.57829919626653</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,32 +2745,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.741947317373555</v>
+        <v>0.520850670879737</v>
       </c>
       <c r="G26" t="n">
-        <v>0.126050420168067</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.327731092436975</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>0.081</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.11083830218069</v>
+        <v>-0.0015608342321126</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0012511564259374</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.224092199144111</v>
+        <v>0.291556327173826</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.773109243697479</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.77</v>
+        <v>2.43</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0066681880419899</v>
+        <v>0.0315730209281165</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0054040688985955</v>
+        <v>-0.0782091862236064</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0179739753414866</v>
+        <v>0.110111842029964</v>
       </c>
       <c r="N27" t="n">
-        <v>0.865998447011684</v>
+        <v>1.299301272762</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.208594672604056</v>
+        <v>0.0018968279286288</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65546218487395</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.081</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0005001141031492</v>
+        <v>0.167829899927218</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0004877407658903</v>
+        <v>0.0408541050128701</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0017334606684309</v>
+        <v>0.339291991236814</v>
       </c>
       <c r="N28" t="n">
-        <v>0.617424818702773</v>
+        <v>5.50261966974485</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.775752699573772</v>
+        <v>0.000395569214497</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="H29" t="n">
-        <v>0.949579831932773</v>
+        <v>0.688405797101449</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.33</v>
+        <v>1.3</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0514637964774951</v>
+        <v>-0.060206043956044</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.110025102692834</v>
+        <v>-0.09011526176052261</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0324272433329659</v>
+        <v>-0.0353515807605522</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.20874662993541</v>
+        <v>-4.63123415046492</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.91939763423423e-06</v>
+        <v>0.476084683766765</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.785714285714286</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>10.09</v>
       </c>
       <c r="K30" t="n">
-        <v>0.346614795918367</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.169924608067095</v>
+        <v>-0.0241359932114721</v>
       </c>
       <c r="M30" t="n">
-        <v>0.565563067874669</v>
+        <v>0.0140711304080949</v>
       </c>
       <c r="N30" t="n">
-        <v>10.503478664193</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.070054620361962</v>
+        <v>0.213104219399542</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0352112676056338</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6619718309859151</v>
+        <v>0.385057471264368</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.41</v>
+        <v>0.043</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0266727521679598</v>
+        <v>0.000181806869089</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0596193223870939</v>
+        <v>-0.0002490623934538</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0005170181986403</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.89168455091914</v>
+        <v>0.422806672300231</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.07914761703376499</v>
+        <v>0.0027801434601039</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.7528735632183911</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.11</v>
+        <v>639.5</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0247595639881272</v>
+        <v>21.3683673469388</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0491950763194929</v>
+        <v>7.40761796730851</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0011563672103518</v>
+        <v>39.6274802312587</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.244901720950813</v>
+        <v>3.34141788067846</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0646751052420371</v>
+        <v>0.589878501652242</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.437869822485207</v>
       </c>
       <c r="H33" t="n">
-        <v>0.396551724137931</v>
+        <v>0.556213017751479</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.044</v>
+        <v>0.0125561224796699</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003328776486671</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0006750313506893</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.756540110607096</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0003719148002083</v>
+        <v>0.840474106864801</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H34" t="n">
-        <v>0.741379310344828</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>656</v>
+        <v>0.007</v>
       </c>
       <c r="K34" t="n">
-        <v>24.5937215650591</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>11.946323953461</v>
+        <v>-0.0001552346143582</v>
       </c>
       <c r="M34" t="n">
-        <v>39.7504344048346</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.74904292150292</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0.2205859275736</v>
       </c>
       <c r="G35" t="n">
-        <v>0.470238095238095</v>
+        <v>0.0609756097560976</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5238095238095239</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0116489549831165</v>
+        <v>0.5395</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0019673887587822</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.004317211302812</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0090232074806821</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.36466890802265</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3659,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.933537252439829</v>
+        <v>0.924202955792114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.157894736842105</v>
+        <v>0.485549132947977</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.007</v>
+        <v>7.71</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.090343454454949e-05</v>
+        <v>0.007858236411973699</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0002496127962502</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0169342640362203</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.29862049349356</v>
+        <v>0.101922651257766</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.80849435104616</v>
+        <v>0.55364476479586</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0645161290322581</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H37" t="n">
-        <v>0.87741935483871</v>
+        <v>0.902298850574713</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.516</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0036290865384615</v>
+        <v>-0.0001996397515527</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0115489340108389</v>
+        <v>-0.0074718292118627</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0019771175807526</v>
+        <v>0.0057687148979483</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.703311344663091</v>
+        <v>-0.0339985952916882</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.995386012194428</v>
+        <v>0.662644250704768</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5</v>
+        <v>0.701149425287356</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.705</v>
+        <v>0.88</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0158592403895899</v>
+        <v>-0.0016670470104974</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0049960945203022</v>
+        <v>-0.008923900856179501</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0245032293001123</v>
+        <v>0.0061789911634877</v>
       </c>
       <c r="N38" t="n">
-        <v>0.205830504731861</v>
+        <v>-0.189437160283806</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3924,35 +3924,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.884741118307742</v>
+        <v>0.547719854976454</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.902298850574713</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5505</v>
+        <v>0.08</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0035738747553816</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0089782359374033</v>
+        <v>-0.0007608495831246</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0020004649031501</v>
+        <v>0.0008400135930899</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.649205223502561</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.91138107682953</v>
+        <v>0.938570052443033</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.689655172413793</v>
+        <v>0.919540229885057</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.832</v>
+        <v>2.67</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0049931647300068</v>
+        <v>-0.0514637964774951</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0124829118250171</v>
+        <v>-0.102640698513582</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0006806025441035</v>
+        <v>0.000670995818709</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.600139991587361</v>
+        <v>-1.92748301413839</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,14 +4095,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.359563014786288</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.540229885057471</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.081</v>
+        <v>0.46</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001999178981937</v>
+        <v>0.0169685019364958</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.000499777842948</v>
+        <v>-0.0648719771048326</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0009507039753742</v>
+        <v>0.0621982451430865</v>
       </c>
       <c r="N41" t="n">
-        <v>0.246812219992297</v>
+        <v>3.68880476880342</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4172,11 +4172,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,14 +4182,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4201,31 +4197,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.991792639576366</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.907514450867052</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.61</v>
+        <v>109</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0640351225538862</v>
+        <v>1.96525590551181</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.110025102692834</v>
+        <v>-6.76141989465956</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0228701792641966</v>
+        <v>4.54552519043175</v>
       </c>
       <c r="N42" t="n">
-        <v>-2.45345297141326</v>
+        <v>1.80298706927689</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.40324797025367</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.459</v>
+        <v>6.3</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.009733206651374501</v>
+        <v>0.178428907800397</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0648719771048326</v>
+        <v>-0.6379018603315399</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0094073011277579</v>
+        <v>0.531780610195888</v>
       </c>
       <c r="N43" t="n">
-        <v>-2.1205243249182</v>
+        <v>2.83220488572058</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.231216363225238</v>
+        <v>0.053702318165127</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109</v>
+        <v>0.4615</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.13820025257882</v>
+        <v>-0.0288056035973711</v>
       </c>
       <c r="L44" t="n">
-        <v>-6.76141989465956</v>
+        <v>-0.0468270810877038</v>
       </c>
       <c r="M44" t="n">
-        <v>0.993795186054077</v>
+        <v>-0.0020664603609208</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.96165160787048</v>
+        <v>-6.24173425728519</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.20948086257967</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.93</v>
+        <v>111.835</v>
       </c>
       <c r="K45" t="n">
-        <v>0.282166446729766</v>
+        <v>-1.24743852459016</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.6379018603315399</v>
+        <v>-2.26334561206695</v>
       </c>
       <c r="M45" t="n">
-        <v>0.770181393325855</v>
+        <v>0.322185712250751</v>
       </c>
       <c r="N45" t="n">
-        <v>4.75828746593197</v>
+        <v>-1.11542766092025</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.015911563693245</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4615</v>
+        <v>6.115</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0359640921409214</v>
+        <v>0.0552566603235017</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0468270810877038</v>
+        <v>-0.129256215836865</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0189105220314311</v>
+        <v>0.194877105759795</v>
       </c>
       <c r="N46" t="n">
-        <v>-7.79286936964711</v>
+        <v>0.903624862199537</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4616,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mangatera at Dannevirke</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0076611205275499</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>111.835</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-2.14803390221402</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-2.87522297130625</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-1.2518528891951</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1.92071704047393</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1863903</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5542704</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Weber - Tamaki</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Mana_2b</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mangatera at Dannevirke</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.185546684761349</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.115</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.0892908210332104</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.332696804771223</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.0505734370059817</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-1.46019331207212</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1863903</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5542704</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Weber - Tamaki</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mana_2b</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
+++ b/trend_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -136,6 +136,9 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -145,46 +148,46 @@
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -660,37 +663,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.947050515588153</v>
+        <v>0.829314255537476</v>
       </c>
       <c r="G2">
-        <v>0.037037037037037</v>
+        <v>0.0625</v>
       </c>
       <c r="H2">
-        <v>0.851851851851852</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>6.5</v>
+        <v>4.375</v>
       </c>
       <c r="K2">
-        <v>-1.02851991758242</v>
+        <v>-0.463921016483516</v>
       </c>
       <c r="L2">
-        <v>-4.1621782192595</v>
+        <v>-2.0440668262509</v>
       </c>
       <c r="M2">
-        <v>-0.0186808694381178</v>
+        <v>0.196494145122839</v>
       </c>
       <c r="N2">
-        <v>-15.8233833474218</v>
+        <v>-10.6039089481947</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -705,19 +708,19 @@
         <v>5542704</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -734,34 +737,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>0.063585943849054</v>
+        <v>0.089229411068833</v>
       </c>
       <c r="G3">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9375</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.65</v>
+        <v>0.42</v>
       </c>
       <c r="K3">
-        <v>-0.163402351325145</v>
+        <v>-0.11328242481203</v>
       </c>
       <c r="L3">
-        <v>-0.354826064221895</v>
+        <v>-0.331626637154127</v>
       </c>
       <c r="M3">
-        <v>0.0046258045362968</v>
+        <v>0.008916228781585199</v>
       </c>
       <c r="N3">
-        <v>-25.1388232807916</v>
+        <v>-26.9720059076262</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -776,19 +779,19 @@
         <v>5542704</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,34 +808,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>0.845744209330638</v>
+        <v>0.844470981686881</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.864406779661017</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.11</v>
+        <v>10.39</v>
       </c>
       <c r="K4">
-        <v>0.051684310912018</v>
+        <v>0.0550077867991881</v>
       </c>
       <c r="L4">
-        <v>-0.0423741038593089</v>
+        <v>-0.0293963420506703</v>
       </c>
       <c r="M4">
-        <v>0.151059579792821</v>
+        <v>0.185210908509608</v>
       </c>
       <c r="N4">
-        <v>0.511219692502651</v>
+        <v>0.529430094313649</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -847,19 +850,19 @@
         <v>5542704</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,19 +876,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.84637039488737</v>
+        <v>0.990034851100472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6610169491525421</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -894,16 +897,16 @@
         <v>0.039</v>
       </c>
       <c r="K5">
-        <v>-0.0016305803571428</v>
+        <v>-0.0032611607142857</v>
       </c>
       <c r="L5">
-        <v>-0.0049237545600187</v>
+        <v>-0.0067920777455663</v>
       </c>
       <c r="M5">
-        <v>0.0007993108724422</v>
+        <v>-0.0010019625256564</v>
       </c>
       <c r="N5">
-        <v>-4.18097527472527</v>
+        <v>-8.36195054945054</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -918,19 +921,19 @@
         <v>5542704</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,40 +950,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.557216564365321</v>
+        <v>0.781825005112929</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.864406779661017</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>860</v>
+        <v>898.8</v>
       </c>
       <c r="K6">
-        <v>-8.987696514012301</v>
+        <v>-46.3468487394958</v>
       </c>
       <c r="L6">
-        <v>-115.874335608275</v>
+        <v>-184.815086941998</v>
       </c>
       <c r="M6">
-        <v>98.63896526155639</v>
+        <v>68.8555728199978</v>
       </c>
       <c r="N6">
-        <v>-1.04508099000143</v>
+        <v>-5.15652522691319</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1863903</v>
@@ -989,19 +992,19 @@
         <v>5542704</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,25 +1018,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.250589496268836</v>
+        <v>0.0562718191655199</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.410714285714286</v>
       </c>
       <c r="H7">
-        <v>0.6181818181818181</v>
+        <v>0.589285714285714</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0133005936409573</v>
+        <v>0.0129283580603136</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0006974102567589</v>
+        <v>0.0019220521076112</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1051,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1863903</v>
@@ -1060,19 +1063,19 @@
         <v>5542704</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,31 +1092,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>0.438010484465696</v>
+        <v>0.752471645900174</v>
       </c>
       <c r="G8">
-        <v>0.0338983050847458</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H8">
-        <v>0.220338983050847</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-0.000472661673883</v>
       </c>
       <c r="M8">
-        <v>0.0001355394940394</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1122,7 +1125,7 @@
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1863903</v>
@@ -1131,19 +1134,19 @@
         <v>5542704</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,40 +1163,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>0.0037897960157913</v>
+        <v>0.471233793707209</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.539</v>
+        <v>0.493</v>
       </c>
       <c r="K9">
-        <v>0.0698214869012566</v>
+        <v>0.0026262126031862</v>
       </c>
       <c r="L9">
-        <v>0.0425307454421678</v>
+        <v>-0.0295155505847903</v>
       </c>
       <c r="M9">
-        <v>0.109883821482094</v>
+        <v>0.0429456000432948</v>
       </c>
       <c r="N9">
-        <v>12.9538936737025</v>
+        <v>0.5327003251899169</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1863903</v>
@@ -1202,19 +1205,19 @@
         <v>5542704</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1231,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>0.138707779839384</v>
+        <v>0.471317071184966</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.711864406779661</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1249,22 +1252,22 @@
         <v>7.7</v>
       </c>
       <c r="K10">
-        <v>-0.0223622448979587</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.0581895575714755</v>
+        <v>-0.0355924491891547</v>
       </c>
       <c r="M10">
-        <v>0.0125029198986464</v>
+        <v>0.0380471082735693</v>
       </c>
       <c r="N10">
-        <v>-0.290418764908555</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1863903</v>
@@ -1273,16 +1276,16 @@
         <v>5542704</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>0.0005819234788650999</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1314,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.546</v>
+        <v>0.504</v>
       </c>
       <c r="K11">
-        <v>0.0755792299805458</v>
+        <v>0.0094896193092621</v>
       </c>
       <c r="L11">
-        <v>0.0391339285714286</v>
+        <v>-0.0213511458707797</v>
       </c>
       <c r="M11">
-        <v>0.11413633869083</v>
+        <v>0.0420921463750472</v>
       </c>
       <c r="N11">
-        <v>13.8423498132868</v>
+        <v>1.88286097405996</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
@@ -1341,19 +1344,19 @@
         <v>5542704</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,34 +1373,34 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>0.0014675588703323</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.813559322033898</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="K12">
-        <v>0.06599299384825701</v>
+        <v>0.0183962912087912</v>
       </c>
       <c r="L12">
-        <v>0.0393800539083558</v>
+        <v>-0.0200894682951088</v>
       </c>
       <c r="M12">
-        <v>0.10169351224609</v>
+        <v>0.0573353618016677</v>
       </c>
       <c r="N12">
-        <v>7.76388162920671</v>
+        <v>2.38912872841444</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
@@ -1412,19 +1415,19 @@
         <v>5542704</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,40 +1444,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.575229174156498</v>
+        <v>0.671788226723908</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.813559322033898</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="K13">
-        <v>-0.0006415398126463</v>
+        <v>-0.0011595238095238</v>
       </c>
       <c r="L13">
-        <v>-0.0054422450756148</v>
+        <v>-0.005593869093997</v>
       </c>
       <c r="M13">
-        <v>0.0041677363424783</v>
+        <v>0.0030728720264404</v>
       </c>
       <c r="N13">
-        <v>-0.76373787219806</v>
+        <v>-1.43151087595532</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1863903</v>
@@ -1483,19 +1486,19 @@
         <v>5542704</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>0.386126230518573</v>
+        <v>0.07392756892108571</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1527,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="K14">
-        <v>0.0459242482349127</v>
+        <v>0.19603772871865</v>
       </c>
       <c r="L14">
-        <v>-0.199085685255822</v>
+        <v>-0.0269229623049423</v>
       </c>
       <c r="M14">
-        <v>0.454227804817402</v>
+        <v>0.48225602197028</v>
       </c>
       <c r="N14">
-        <v>1.91351034312136</v>
+        <v>9.42489080378124</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1863903</v>
@@ -1554,19 +1557,19 @@
         <v>5542704</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,40 +1586,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.488592333073188</v>
+        <v>0.7103301060788551</v>
       </c>
       <c r="G15">
-        <v>0.018018018018018</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="H15">
-        <v>0.792792792792793</v>
+        <v>0.79047619047619</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-0.0718102220677085</v>
       </c>
       <c r="L15">
-        <v>-0.18408728828563</v>
+        <v>-0.265364909227009</v>
       </c>
       <c r="M15">
-        <v>0.292661162506375</v>
+        <v>0.186762190538565</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-1.61371285545412</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1863903</v>
@@ -1625,19 +1628,19 @@
         <v>5542704</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1654,40 +1657,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.011968984924329</v>
+        <v>0.000835435328099</v>
       </c>
       <c r="G16">
-        <v>0.0112359550561798</v>
+        <v>0.0121951219512195</v>
       </c>
       <c r="H16">
-        <v>0.842696629213483</v>
+        <v>0.8536585365853659</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.25</v>
+        <v>1.025</v>
       </c>
       <c r="K16">
-        <v>-0.0717737907070099</v>
+        <v>-0.126740700845917</v>
       </c>
       <c r="L16">
-        <v>-0.13839669992865</v>
+        <v>-0.191707563721979</v>
       </c>
       <c r="M16">
-        <v>-0.0255481799223159</v>
+        <v>-0.0557011902803423</v>
       </c>
       <c r="N16">
-        <v>-5.74190325656079</v>
+        <v>-12.3649464239919</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1863903</v>
@@ -1696,19 +1699,19 @@
         <v>5542704</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,40 +1728,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.962515829524071</v>
+        <v>0.913350494528252</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.823529411764706</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.99</v>
+        <v>10.11</v>
       </c>
       <c r="K17">
-        <v>0.0265878070973613</v>
+        <v>0.0257318982387478</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.0032098704574712</v>
       </c>
       <c r="M17">
-        <v>0.0533733772397705</v>
+        <v>0.0551724655544707</v>
       </c>
       <c r="N17">
-        <v>0.266144215188801</v>
+        <v>0.254519270412935</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1863903</v>
@@ -1767,19 +1770,19 @@
         <v>5542704</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,40 +1799,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.633450087666775</v>
+        <v>0.726712998713805</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.487394957983193</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>-0.0001248291182501</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L18">
-        <v>-0.0010028691287787</v>
+        <v>-0.0011258184297624</v>
       </c>
       <c r="M18">
-        <v>0.00042459930818</v>
+        <v>0.0003333649316003</v>
       </c>
       <c r="N18">
-        <v>-0.297212186309931</v>
+        <v>-0.830868971792539</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1863903</v>
@@ -1838,19 +1841,19 @@
         <v>5542704</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,40 +1870,40 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.0996477405696104</v>
+        <v>0.205790659513458</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.714285714285714</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="K19">
-        <v>17.9239367502726</v>
+        <v>15.0764794371079</v>
       </c>
       <c r="L19">
-        <v>-4.68230750720756</v>
+        <v>-9.12974799539359</v>
       </c>
       <c r="M19">
-        <v>49.9069603275594</v>
+        <v>59.7549568015559</v>
       </c>
       <c r="N19">
-        <v>2.42215361490171</v>
+        <v>1.99688469365667</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q19">
         <v>1863903</v>
@@ -1909,19 +1912,19 @@
         <v>5542704</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.000166934622933</v>
+        <v>0.0112339085663957</v>
       </c>
       <c r="G20">
-        <v>0.495652173913044</v>
+        <v>0.452173913043478</v>
       </c>
       <c r="H20">
-        <v>0.5043478260869561</v>
+        <v>0.539130434782609</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.010288029462523</v>
+        <v>0.0115816826854943</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1962,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0003901905880775</v>
+        <v>0.0001033623907274</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1971,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q20">
         <v>1863903</v>
@@ -1980,19 +1983,19 @@
         <v>5542704</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,16 +2012,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.595399418420841</v>
+        <v>0.905412480388147</v>
       </c>
       <c r="G21">
-        <v>0.0504201680672269</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H21">
-        <v>0.176470588235294</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2030,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0001429549902152</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2042,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q21">
         <v>1863903</v>
@@ -2051,19 +2054,19 @@
         <v>5542704</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2080,40 +2083,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0217381918647241</v>
+        <v>0.46873468328252</v>
       </c>
       <c r="G22">
-        <v>0.0588235294117647</v>
+        <v>0.0420168067226891</v>
       </c>
       <c r="H22">
-        <v>0.890756302521008</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.554</v>
+        <v>0.516</v>
       </c>
       <c r="K22">
-        <v>0.011849713740458</v>
+        <v>0.0011343167701863</v>
       </c>
       <c r="L22">
-        <v>0.0018924807380911</v>
+        <v>-0.0129615455688855</v>
       </c>
       <c r="M22">
-        <v>0.0235592391922075</v>
+        <v>0.0099549784588566</v>
       </c>
       <c r="N22">
-        <v>2.13893749827762</v>
+        <v>0.21982883143146</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1863903</v>
@@ -2122,19 +2125,19 @@
         <v>5542704</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2151,16 +2154,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>0.124340350370573</v>
+        <v>0.10565216044289</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.504201680672269</v>
+        <v>0.521008403361345</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2169,22 +2172,22 @@
         <v>7.72</v>
       </c>
       <c r="K23">
-        <v>-0.0072807308970098</v>
+        <v>-0.007996715927750401</v>
       </c>
       <c r="L23">
-        <v>-0.0182985538406853</v>
+        <v>-0.0190897212543553</v>
       </c>
       <c r="M23">
-        <v>0.0024965823650034</v>
+        <v>0.0023640341467498</v>
       </c>
       <c r="N23">
-        <v>-0.0943099857125623</v>
+        <v>-0.103584403209202</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>1863903</v>
@@ -2193,16 +2196,16 @@
         <v>5542704</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>0.0159642938094079</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
         <v>0.0252100840336134</v>
@@ -2234,25 +2237,25 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.5854</v>
+        <v>0.546</v>
       </c>
       <c r="K24">
-        <v>0.0129733606557377</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0040163119663113</v>
+        <v>-0.0132632711099229</v>
       </c>
       <c r="M24">
-        <v>0.0261779783196214</v>
+        <v>0.0100231399749574</v>
       </c>
       <c r="N24">
-        <v>2.21615316975362</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1863903</v>
@@ -2261,19 +2264,19 @@
         <v>5542704</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,40 +2293,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>0.0583634803190031</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.756302521008403</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K25">
-        <v>0.0137312030075188</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0133772894224176</v>
       </c>
       <c r="M25">
-        <v>0.0266691125852118</v>
+        <v>0.0119207251581343</v>
       </c>
       <c r="N25">
-        <v>1.57829919626653</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1863903</v>
@@ -2332,19 +2335,19 @@
         <v>5542704</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,16 +2364,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>0.520850670879737</v>
+        <v>0.652482449112865</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.647058823529412</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2379,16 +2382,16 @@
         <v>0.081</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L26">
-        <v>-0.0015608342321126</v>
+        <v>-0.0017992610837438</v>
       </c>
       <c r="M26">
-        <v>0.0012511564259374</v>
+        <v>0.0011983425537751</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-0.410305665082735</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
@@ -2403,19 +2406,19 @@
         <v>5542704</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2432,40 +2435,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>0.291556327173826</v>
+        <v>0.160402034795034</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9411764705882349</v>
+        <v>0.949579831932773</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="K27">
-        <v>0.0315730209281165</v>
+        <v>0.0426234290843806</v>
       </c>
       <c r="L27">
-        <v>-0.0782091862236064</v>
+        <v>-0.0437790257363444</v>
       </c>
       <c r="M27">
-        <v>0.110111842029964</v>
+        <v>0.127667646128109</v>
       </c>
       <c r="N27">
-        <v>1.299301272762</v>
+        <v>1.82933172035968</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1863903</v>
@@ -2474,19 +2477,19 @@
         <v>5542704</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2503,40 +2506,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.0018968279286288</v>
+        <v>0.015893662349192</v>
       </c>
       <c r="G28">
-        <v>0.0121212121212121</v>
+        <v>0.0182926829268293</v>
       </c>
       <c r="H28">
-        <v>0.757575757575758</v>
+        <v>0.76219512195122</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3.05</v>
+        <v>3.025</v>
       </c>
       <c r="K28">
-        <v>0.167829899927218</v>
+        <v>0.0833523505248745</v>
       </c>
       <c r="L28">
-        <v>0.0408541050128701</v>
+        <v>0.008850545402998801</v>
       </c>
       <c r="M28">
-        <v>0.339291991236814</v>
+        <v>0.227403042638773</v>
       </c>
       <c r="N28">
-        <v>5.50261966974485</v>
+        <v>2.75544960412808</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q28">
         <v>1863903</v>
@@ -2545,19 +2548,19 @@
         <v>5542704</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,40 +2577,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>0.000395569214497</v>
+        <v>2.68154601910098E-05</v>
       </c>
       <c r="G29">
-        <v>0.0144927536231884</v>
+        <v>0.0153846153846154</v>
       </c>
       <c r="H29">
-        <v>0.688405797101449</v>
+        <v>0.7307692307692309</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="K29">
-        <v>-0.060206043956044</v>
+        <v>-0.0747782074613285</v>
       </c>
       <c r="L29">
-        <v>-0.09011526176052261</v>
+        <v>-0.114881678244205</v>
       </c>
       <c r="M29">
-        <v>-0.0353515807605522</v>
+        <v>-0.0500868358426358</v>
       </c>
       <c r="N29">
-        <v>-4.63123415046492</v>
+        <v>-5.98225659690628</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1863903</v>
@@ -2616,19 +2619,19 @@
         <v>5542704</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,40 +2648,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>0.476084683766765</v>
+        <v>0.80778147466313</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.810344827586207</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.09</v>
+        <v>10.12</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.008577299412915599</v>
       </c>
       <c r="L30">
-        <v>-0.0241359932114721</v>
+        <v>-0.0100050342108592</v>
       </c>
       <c r="M30">
-        <v>0.0140711304080949</v>
+        <v>0.0287426267636772</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>0.0847559230525264</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1863903</v>
@@ -2687,19 +2690,19 @@
         <v>5542704</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.213104219399542</v>
+        <v>0.208809930267672</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2731,25 +2734,25 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.043</v>
+        <v>0.0415</v>
       </c>
       <c r="K31">
-        <v>0.000181806869089</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L31">
-        <v>-0.0002490623934538</v>
+        <v>-0.0002145794392038</v>
       </c>
       <c r="M31">
-        <v>0.0005170181986403</v>
+        <v>0.0004995483813366</v>
       </c>
       <c r="N31">
-        <v>0.422806672300231</v>
+        <v>0.481729875165684</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1863903</v>
@@ -2758,19 +2761,19 @@
         <v>5542704</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2787,40 +2790,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.0027801434601039</v>
+        <v>0.0034100387257573</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.7528735632183911</v>
+        <v>0.739884393063584</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>639.5</v>
+        <v>670</v>
       </c>
       <c r="K32">
-        <v>21.3683673469388</v>
+        <v>25.0858516483516</v>
       </c>
       <c r="L32">
-        <v>7.40761796730851</v>
+        <v>8.11135472240751</v>
       </c>
       <c r="M32">
-        <v>39.6274802312587</v>
+        <v>46.2361515758932</v>
       </c>
       <c r="N32">
-        <v>3.34141788067846</v>
+        <v>3.74415696244054</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q32">
         <v>1863903</v>
@@ -2829,19 +2832,19 @@
         <v>5542704</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,22 +2861,22 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.589878501652242</v>
+        <v>0.424011968708148</v>
       </c>
       <c r="G33">
-        <v>0.437869822485207</v>
+        <v>0.443786982248521</v>
       </c>
       <c r="H33">
-        <v>0.556213017751479</v>
+        <v>0.544378698224852</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.0125561224796699</v>
+        <v>0.0121936838474555</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2900,19 +2903,19 @@
         <v>5542704</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,16 +2932,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.840474106864801</v>
+        <v>0.916990406942898</v>
       </c>
       <c r="G34">
-        <v>0.0487804878048781</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H34">
-        <v>0.146341463414634</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.0001552346143582</v>
+        <v>-0.0001664388243335</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q34">
         <v>1863903</v>
@@ -2971,19 +2974,19 @@
         <v>5542704</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3000,40 +3003,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>0.2205859275736</v>
+        <v>0.705676681130497</v>
       </c>
       <c r="G35">
-        <v>0.0609756097560976</v>
+        <v>0.0574712643678161</v>
       </c>
       <c r="H35">
-        <v>0.878048780487805</v>
+        <v>0.873563218390805</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.5395</v>
+        <v>0.499</v>
       </c>
       <c r="K35">
-        <v>0.0019673887587822</v>
+        <v>-0.0022577266483516</v>
       </c>
       <c r="L35">
-        <v>-0.004317211302812</v>
+        <v>-0.0093319335698925</v>
       </c>
       <c r="M35">
-        <v>0.0090232074806821</v>
+        <v>0.0022793192177573</v>
       </c>
       <c r="N35">
-        <v>0.36466890802265</v>
+        <v>-0.452450230130591</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1863903</v>
@@ -3042,19 +3045,19 @@
         <v>5542704</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3071,40 +3074,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F36">
-        <v>0.924202955792114</v>
+        <v>0.451402171694662</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.485549132947977</v>
+        <v>0.456647398843931</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="K36">
-        <v>0.007858236411973699</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0087594758761951</v>
       </c>
       <c r="M36">
-        <v>0.0169342640362203</v>
+        <v>0.0077301587301587</v>
       </c>
       <c r="N36">
-        <v>0.101922651257766</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q36">
         <v>1863903</v>
@@ -3113,16 +3116,16 @@
         <v>5542704</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,40 +3142,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>0.55364476479586</v>
+        <v>0.811701150646266</v>
       </c>
       <c r="G37">
         <v>0.0172413793103448</v>
       </c>
       <c r="H37">
-        <v>0.902298850574713</v>
+        <v>0.908045977011494</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.5872000000000001</v>
+        <v>0.543</v>
       </c>
       <c r="K37">
-        <v>-0.0001996397515527</v>
+        <v>-0.0035738747553816</v>
       </c>
       <c r="L37">
-        <v>-0.0074718292118627</v>
+        <v>-0.0111941006412528</v>
       </c>
       <c r="M37">
-        <v>0.0057687148979483</v>
+        <v>0.0024738921189612</v>
       </c>
       <c r="N37">
-        <v>-0.0339985952916882</v>
+        <v>-0.658172146479116</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1863903</v>
@@ -3181,19 +3184,19 @@
         <v>5542704</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,40 +3213,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>0.662644250704768</v>
+        <v>0.866324222236554</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.701149425287356</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.88</v>
+        <v>0.842</v>
       </c>
       <c r="K38">
-        <v>-0.0016670470104974</v>
+        <v>-0.0041600227790432</v>
       </c>
       <c r="L38">
-        <v>-0.008923900856179501</v>
+        <v>-0.0132919247489957</v>
       </c>
       <c r="M38">
-        <v>0.0061789911634877</v>
+        <v>0.0020781046682372</v>
       </c>
       <c r="N38">
-        <v>-0.189437160283806</v>
+        <v>-0.494064463069273</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q38">
         <v>1863903</v>
@@ -3252,19 +3255,19 @@
         <v>5542704</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3281,40 +3284,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>0.547719854976454</v>
+        <v>0.3051306027033</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.5344827586206899</v>
+        <v>0.528735632183908</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.08</v>
+        <v>0.0785</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.0002859099804305</v>
       </c>
       <c r="L39">
-        <v>-0.0007608495831246</v>
+        <v>-0.0004975095532028</v>
       </c>
       <c r="M39">
-        <v>0.0008400135930899</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.364216535580291</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q39">
         <v>1863903</v>
@@ -3323,19 +3326,19 @@
         <v>5542704</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3352,40 +3355,40 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40">
-        <v>0.938570052443033</v>
+        <v>0.918203080038146</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.919540229885057</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.67</v>
+        <v>2.595</v>
       </c>
       <c r="K40">
-        <v>-0.0514637964774951</v>
+        <v>-0.043794964028777</v>
       </c>
       <c r="L40">
-        <v>-0.102640698513582</v>
+        <v>-0.0954766873976033</v>
       </c>
       <c r="M40">
-        <v>0.000670995818709</v>
+        <v>0.0079785185642798</v>
       </c>
       <c r="N40">
-        <v>-1.92748301413839</v>
+        <v>-1.68766720727464</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q40">
         <v>1863903</v>
@@ -3394,19 +3397,19 @@
         <v>5542704</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3423,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41">
-        <v>0.59675202974633</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3441,22 +3444,22 @@
         <v>0.46</v>
       </c>
       <c r="K41">
-        <v>0.0169685019364958</v>
+        <v>0.0327642962032859</v>
       </c>
       <c r="L41">
-        <v>-0.0648719771048326</v>
+        <v>-0.0263472681328798</v>
       </c>
       <c r="M41">
-        <v>0.0621982451430865</v>
+        <v>0.0645341654794795</v>
       </c>
       <c r="N41">
-        <v>3.68880476880342</v>
+        <v>7.12267308767086</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q41">
         <v>1863903</v>
@@ -3465,16 +3468,16 @@
         <v>5542704</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3491,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42">
         <v>0.59675202974633</v>
@@ -3506,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>109</v>
+        <v>108.75</v>
       </c>
       <c r="K42">
-        <v>1.96525590551181</v>
+        <v>2.16242537313433</v>
       </c>
       <c r="L42">
-        <v>-6.76141989465956</v>
+        <v>-11.8272415542441</v>
       </c>
       <c r="M42">
-        <v>4.54552519043175</v>
+        <v>4.24561480133668</v>
       </c>
       <c r="N42">
-        <v>1.80298706927689</v>
+        <v>1.98843712472122</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
@@ -3533,16 +3536,16 @@
         <v>5542704</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43">
-        <v>0.768783636774762</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3577,22 +3580,22 @@
         <v>6.3</v>
       </c>
       <c r="K43">
-        <v>0.178428907800397</v>
+        <v>0.361907448689763</v>
       </c>
       <c r="L43">
-        <v>-0.6379018603315399</v>
+        <v>-0.0593859319860626</v>
       </c>
       <c r="M43">
         <v>0.531780610195888</v>
       </c>
       <c r="N43">
-        <v>2.83220488572058</v>
+        <v>5.74456267761528</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q43">
         <v>1863903</v>
@@ -3601,16 +3604,16 @@
         <v>5542704</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3627,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>0.053702318165127</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3645,22 +3648,22 @@
         <v>0.4615</v>
       </c>
       <c r="K44">
-        <v>-0.0288056035973711</v>
+        <v>-0.008376129256428</v>
       </c>
       <c r="L44">
-        <v>-0.0468270810877038</v>
+        <v>-0.0408822796523991</v>
       </c>
       <c r="M44">
-        <v>-0.0020664603609208</v>
+        <v>0.012117829241972</v>
       </c>
       <c r="N44">
-        <v>-6.24173425728519</v>
+        <v>-1.81497925383057</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q44">
         <v>1863903</v>
@@ -3669,16 +3672,16 @@
         <v>5542704</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3695,40 +3698,40 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.20948086257967</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>111.835</v>
+        <v>110.335</v>
       </c>
       <c r="K45">
-        <v>-1.24743852459016</v>
+        <v>-0.484786363636364</v>
       </c>
       <c r="L45">
-        <v>-2.26334561206695</v>
+        <v>-2.05912117750393</v>
       </c>
       <c r="M45">
-        <v>0.322185712250751</v>
+        <v>1.10809718204951</v>
       </c>
       <c r="N45">
-        <v>-1.11542766092025</v>
+        <v>-0.439376774039393</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q45">
         <v>1863903</v>
@@ -3737,16 +3740,16 @@
         <v>5542704</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3763,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>0.704247481502542</v>
+        <v>0.946297681834873</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3781,22 +3784,22 @@
         <v>6.115</v>
       </c>
       <c r="K46">
-        <v>0.0552566603235017</v>
+        <v>0.108425953815261</v>
       </c>
       <c r="L46">
-        <v>-0.129256215836865</v>
+        <v>-0.008961873190267601</v>
       </c>
       <c r="M46">
-        <v>0.194877105759795</v>
+        <v>0.331166887194465</v>
       </c>
       <c r="N46">
-        <v>0.903624862199537</v>
+        <v>1.77311453500018</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q46">
         <v>1863903</v>
@@ -3805,16 +3808,16 @@
         <v>5542704</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
